--- a/biology/Zoologie/Clelia_scytalina/Clelia_scytalina.xlsx
+++ b/biology/Zoologie/Clelia_scytalina/Clelia_scytalina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clelia scytalina est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clelia scytalina est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Mexique au Veracruz, au Tabasco et au Yucatán, au Belize, au Guatemala, au Nicaragua, au Costa Rica et en Colombie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Mexique au Veracruz, au Tabasco et au Yucatán, au Belize, au Guatemala, au Nicaragua, au Costa Rica et en Colombie.
 Sa présence au Panamá est incertaine.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cope, 1867 "1868" : Fifth contribution to the herpetology of tropical America. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 18, p. 317-323 (texte intégral).</t>
         </is>
